--- a/curcode.xlsx
+++ b/curcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762D11DC-49DF-4683-AA1A-BCFA4B3A27FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB8A607-8997-4FE2-922C-E5AB7DC6C6C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,15 +16,12 @@
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet 2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sheet 2'!$A$1:$A$22</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>AUD</t>
   </si>
@@ -56,73 +53,37 @@
     <t>USD</t>
   </si>
   <si>
-    <t xml:space="preserve">AUD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CZK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DKK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HKD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HUF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JPY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MXN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NZD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SGD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZAR </t>
+    <t>CZK</t>
+  </si>
+  <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>HUF</t>
+  </si>
+  <si>
+    <t>MXN</t>
+  </si>
+  <si>
+    <t>PLN</t>
+  </si>
+  <si>
+    <t>SEK</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>TRY</t>
+  </si>
+  <si>
+    <t>ZAR</t>
   </si>
   <si>
     <t>From</t>
   </si>
   <si>
     <t>To</t>
-  </si>
-  <si>
-    <t>BDT</t>
-  </si>
-  <si>
-    <t>INR</t>
-  </si>
-  <si>
-    <t>PKR</t>
   </si>
 </sst>
 </file>
@@ -466,7 +427,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -527,120 +488,107 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/curcode.xlsx
+++ b/curcode.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\FEX_TRACKER-20200709T093803Z-001\FEX_TRACKER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB8A607-8997-4FE2-922C-E5AB7DC6C6C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856C2CD7-2E29-4175-BB7B-4051F20A83EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>AUD</t>
   </si>
@@ -84,6 +84,15 @@
   </si>
   <si>
     <t>To</t>
+  </si>
+  <si>
+    <t>BDT</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>PKR</t>
   </si>
 </sst>
 </file>
@@ -488,10 +497,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,6 +600,21 @@
         <v>18</v>
       </c>
     </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/curcode.xlsx
+++ b/curcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\FEX_TRACKER-20200709T093803Z-001\FEX_TRACKER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856C2CD7-2E29-4175-BB7B-4051F20A83EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA43471-9AD6-40A4-9A0B-EEDD80042504}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,105 +517,108 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A22">
+    <sortCondition ref="A2:A22"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
